--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2216026325483608</v>
+        <v>0.2161975982471196</v>
       </c>
       <c r="C2" t="n">
-        <v>3.859159070398101e-152</v>
+        <v>2.591941345092847e-153</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,148 +476,168 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.196069981850685</v>
+        <v>0.1247716102218387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3282674744690943</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>8.39459470583371e-12</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1674856536804848</v>
+        <v>0.06652051411738401</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05085454280918648</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>9.899750664331163e-28</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1198878253657684</v>
+        <v>0.0590438730426792</v>
       </c>
       <c r="C5" t="n">
-        <v>0.330578393025363</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.02065464015814334</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07629876547784825</v>
+        <v>0.05397123717838388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05039837994631833</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>4.319450230196629e-06</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06510472945974434</v>
+        <v>0.04950477910588368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07117532070032311</v>
+        <v>0.102631809578559</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05915631438367458</v>
+        <v>0.02740614778513223</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1295279519405602</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>7.962265083428027e-06</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05413261986269116</v>
+        <v>0.02656508939325192</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03875515193964542</v>
+        <v>6.088797332812716e-06</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.04662934089916937</v>
+        <v>0.02243565781947125</v>
       </c>
       <c r="C10" t="n">
-        <v>4.514054163068887e-06</v>
+        <v>0.001684682712819746</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04030991642830309</v>
+        <v>0.007689188119411104</v>
       </c>
       <c r="C11" t="n">
-        <v>0.226554417520638</v>
+        <v>0.6560733378028589</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03507804592639564</v>
+        <v>0.005164428897501384</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3642671445490255</v>
+        <v>0.5112961389066712</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
@@ -628,314 +648,260 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01381224212798425</v>
+        <v>0.001497045993798715</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3493124915589957</v>
+        <v>0.7952784374685754</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.008594426026574965</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.7791523504714079</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.007091414179336484</v>
+        <v>-0.002143396444145825</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8528323037431139</v>
+        <v>0.7664532809954758</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.003826701267853963</v>
+        <v>-0.002241957875308856</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8414593395099885</v>
+        <v>0.6630626851531053</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.003409577462434083</v>
+        <v>-0.004406794628620946</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8256369489126786</v>
+        <v>0.5231682320300235</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.003264712911483308</v>
+        <v>-0.01027519568821032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8646092929908624</v>
+        <v>0.5014185371014228</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001535215434792639</v>
+        <v>-0.01428328340307798</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9558453775710044</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.04042679931048114</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
+        <v>-0.01547174796119295</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.004563603600050165</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.002686841568394424</v>
+        <v>-0.01625626620498499</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7946503720470899</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01163023415329379</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.005626419037944697</v>
+        <v>-0.01652689321415429</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5773413225162709</v>
+        <v>0.8188294240189631</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005629015325892018</v>
+        <v>-0.01723680904776562</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4865599136567116</v>
+        <v>0.2113973966144023</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.00572420289592551</v>
+        <v>-0.02585943607993506</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4517403504978802</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>0.009906634057404762</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.01204366977988629</v>
+        <v>-0.03202658383902722</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3085926523747269</v>
+        <v>0.1289697962840741</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.02585246501153456</v>
+        <v>-0.03883916242409765</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1041179766340247</v>
+        <v>0.5102652758251093</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.03067069887273618</v>
+        <v>-0.0513343945645507</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3366072598845954</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>0.002042026670983654</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.03122466611348367</v>
+        <v>-0.06690643755915868</v>
       </c>
       <c r="C28" t="n">
-        <v>0.00482607716213101</v>
+        <v>1.346282011666029e-07</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.03158421969596502</v>
+        <v>-0.06984661748493802</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3631606083933091</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Kurtosis of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.03357444169416032</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.4140256170910387</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1113372983976718</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.002297985753553273</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1376121885168275</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2950029392088485</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.1686127583313816</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.3699689490888718</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.2072778303770197</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.007324310969353468</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>**</t>
+        <v>0.0003148252562759787</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2237314324443324</v>
+        <v>0.2220797453367087</v>
       </c>
       <c r="C2" t="n">
-        <v>2.879637307679378e-211</v>
+        <v>1.605650970628156e-211</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1379897170844807</v>
+        <v>0.1027493078847351</v>
       </c>
       <c r="C3" t="n">
-        <v>3.308498395562952e-06</v>
+        <v>1.302487829482936e-09</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -494,14 +494,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08322823270811829</v>
+        <v>0.08730075013280501</v>
       </c>
       <c r="C4" t="n">
-        <v>7.969472712127836e-09</v>
+        <v>1.636702294683559e-11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -512,50 +512,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0785505540474003</v>
+        <v>0.08679131953579554</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009433135804346073</v>
+        <v>9.73239414868836e-05</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.07074958456487065</v>
+        <v>0.05501758802147839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007695809090327831</v>
+        <v>2.838007599385072e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05774813174971308</v>
+        <v>0.05275197667690928</v>
       </c>
       <c r="C7" t="n">
-        <v>3.510298239602509e-07</v>
+        <v>3.28006983903799e-33</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.05339231627464543</v>
+        <v>0.02963235325443341</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001262043083808689</v>
+        <v>0.003324015005149534</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,244 +584,256 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05274563485199149</v>
+        <v>0.02584685174463304</v>
       </c>
       <c r="C9" t="n">
-        <v>5.549122369251436e-20</v>
+        <v>0.0231493118397728</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05224695181957729</v>
+        <v>0.01777626267850053</v>
       </c>
       <c r="C10" t="n">
-        <v>9.202600095581002e-05</v>
+        <v>0.00483795517705311</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0318748822102527</v>
+        <v>0.01185609057593322</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004872619001866194</v>
+        <v>0.01090708861005085</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02833901825731942</v>
+        <v>0.009124135505781023</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0018952568853037</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5720902710518342</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.021517434064391</v>
+        <v>0.003873345047208335</v>
       </c>
       <c r="C13" t="n">
-        <v>0.007615439004034693</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.4419506643509135</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003102219745740861</v>
+        <v>0.003785501509801208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9042437504631705</v>
+        <v>0.6487889970186091</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.00263034381713434</v>
+        <v>0.001770308783963221</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7070582056133519</v>
+        <v>0.8529386220237147</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.0003729540267922229</v>
+        <v>-0.001062639605206746</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9360943534503054</v>
+        <v>0.9208542015418629</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.001610708367687522</v>
+        <v>-0.01064707933782278</v>
       </c>
       <c r="C17" t="n">
-        <v>0.739910767708208</v>
-      </c>
-      <c r="D17" t="inlineStr"/>
+        <v>0.003642603792345232</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002934073118823672</v>
+        <v>-0.01391899347098893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7525660986591927</v>
+        <v>0.5185096661160969</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.005750072481648978</v>
+        <v>-0.01634588913186207</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6200924932271321</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>0.0001055887131841121</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01370306134576706</v>
+        <v>-0.02565121300685381</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2548067266831541</v>
+        <v>0.133033394313287</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01532531974513177</v>
+        <v>-0.0435501947966925</v>
       </c>
       <c r="C21" t="n">
-        <v>0.6657815547747231</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>3.839686688284572e-05</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02136020849466725</v>
+        <v>-0.05870283543053786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3436948087801417</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.0003448080980224983</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02515823777275595</v>
+        <v>-0.06400778478116398</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2671564862720899</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>1.225034858745629e-07</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.0452026360064309</v>
+        <v>-0.08642451208983223</v>
       </c>
       <c r="C24" t="n">
-        <v>0.000837864755552399</v>
+        <v>4.465004684283214e-08</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -832,102 +844,34 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.05288936100156641</v>
+        <v>-0.09888830375717847</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001079804003409192</v>
+        <v>2.07057896806061e-10</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.05472481251293498</v>
+        <v>-0.1024519571137303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.00270928882398763</v>
+        <v>1.16982229285638e-23</v>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Value Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.05937870471672341</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.601564149269527e-07</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.0735011012228029</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.001361481758704861</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.08252761537987029</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.1205239109836824</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.1364605387986745</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.357249675283588e-08</v>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,176 +458,152 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2220797453367087</v>
+        <v>20381092123.95425</v>
       </c>
       <c r="C2" t="n">
-        <v>1.605650970628156e-211</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638786711</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1027493078847351</v>
+        <v>14508419300.1972</v>
       </c>
       <c r="C3" t="n">
-        <v>1.302487829482936e-09</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638783635</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.08730075013280501</v>
+        <v>14508419300.12909</v>
       </c>
       <c r="C4" t="n">
-        <v>1.636702294683559e-11</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638790568</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08679131953579554</v>
+        <v>9540144549.102463</v>
       </c>
       <c r="C5" t="n">
-        <v>9.73239414868836e-05</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638772816</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05501758802147839</v>
+        <v>9540144549.000443</v>
       </c>
       <c r="C6" t="n">
-        <v>2.838007599385072e-05</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638788673</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.05275197667690928</v>
+        <v>9540144548.928543</v>
       </c>
       <c r="C7" t="n">
-        <v>3.28006983903799e-33</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8499833638799849</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02963235325443341</v>
+        <v>0.1666821586550112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.003324015005149534</v>
+        <v>9.76765013848734e-06</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02584685174463304</v>
+        <v>0.160106239967382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0231493118397728</v>
+        <v>2.27844227087169e-15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01777626267850053</v>
+        <v>0.09091379906301805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.00483795517705311</v>
+        <v>1.107126431865197e-10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01185609057593322</v>
+        <v>0.06652446477789088</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01090708861005085</v>
+        <v>0.03416485001149273</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -638,188 +614,176 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.009124135505781023</v>
+        <v>0.05239767902990573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5720902710518342</v>
+        <v>0.2412748010250934</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003873345047208335</v>
+        <v>0.03997347028652935</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4419506643509135</v>
+        <v>0.07058059398914737</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003785501509801208</v>
+        <v>0.03921358803030132</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6487889970186091</v>
-      </c>
-      <c r="D14" t="inlineStr"/>
+        <v>0.0184165591230803</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.001770308783963221</v>
+        <v>0.03895425253060674</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8529386220237147</v>
+        <v>0.05819767668848554</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.001062639605206746</v>
+        <v>0.02102602135627927</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9208542015418629</v>
+        <v>0.5187211605750924</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.01064707933782278</v>
+        <v>0.004541251050860701</v>
       </c>
       <c r="C17" t="n">
-        <v>0.003642603792345232</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.9239858261627811</v>
+      </c>
+      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01391899347098893</v>
+        <v>-0.002934235712215818</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5185096661160969</v>
+        <v>0.918428714543656</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01634588913186207</v>
+        <v>-0.0148483599640369</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0001055887131841121</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3871463377836246</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02565121300685381</v>
+        <v>-0.02683460263552814</v>
       </c>
       <c r="C20" t="n">
-        <v>0.133033394313287</v>
+        <v>0.768641156847675</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0435501947966925</v>
+        <v>-0.02869017063985911</v>
       </c>
       <c r="C21" t="n">
-        <v>3.839686688284572e-05</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4446226506592543</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05870283543053786</v>
+        <v>-0.04457082065624938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0003448080980224983</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06521917400628864</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.06400778478116398</v>
+        <v>-0.05564305625120809</v>
       </c>
       <c r="C23" t="n">
-        <v>1.225034858745629e-07</v>
+        <v>0.002416964049729713</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -830,28 +794,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.08642451208983223</v>
+        <v>-0.07741297522638228</v>
       </c>
       <c r="C24" t="n">
-        <v>4.465004684283214e-08</v>
+        <v>0.02749968375525213</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.09888830375717847</v>
+        <v>-0.07982850410890746</v>
       </c>
       <c r="C25" t="n">
-        <v>2.07057896806061e-10</v>
+        <v>9.608977227948692e-06</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -862,20 +826,66 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1024519571137303</v>
+        <v>-0.09900042456464624</v>
       </c>
       <c r="C26" t="n">
-        <v>1.16982229285638e-23</v>
+        <v>0.0007338184192387982</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1012027469286463</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.002468035748997497</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-44429655973.08057</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8499833638788489</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-44429655973.09192</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.8499833638788109</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>20381092123.95425</v>
+        <v>13812744377.57056</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8499833638786711</v>
+        <v>0.8835514728573952</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14508419300.1972</v>
+        <v>9111743006.426666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8499833638783635</v>
+        <v>0.8835514728567675</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14508419300.12909</v>
+        <v>9111743006.32399</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8499833638790568</v>
+        <v>0.8835514728580681</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9540144549.102463</v>
+        <v>6035896026.137238</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8499833638772816</v>
+        <v>0.8835514728556861</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9540144549.000443</v>
+        <v>6035896026.037201</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8499833638788673</v>
+        <v>0.883551472857603</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,24 +532,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9540144548.928543</v>
+        <v>6035896025.966217</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8499833638799849</v>
+        <v>0.8835514728589628</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1666821586550112</v>
+        <v>0.1543171252072861</v>
       </c>
       <c r="C8" t="n">
-        <v>9.76765013848734e-06</v>
+        <v>2.342939948346687e-14</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,14 +560,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.160106239967382</v>
+        <v>0.1197811711767104</v>
       </c>
       <c r="C9" t="n">
-        <v>2.27844227087169e-15</v>
+        <v>0.0006505056054869644</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -582,10 +582,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.09091379906301805</v>
+        <v>0.08725953848895941</v>
       </c>
       <c r="C10" t="n">
-        <v>1.107126431865197e-10</v>
+        <v>6.463577474490125e-10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -596,14 +596,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06652446477789088</v>
+        <v>0.07379764656268806</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03416485001149273</v>
+        <v>0.01045840046735528</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -614,28 +614,28 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05239767902990573</v>
+        <v>0.03500277779700333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2412748010250934</v>
+        <v>0.1145972130527194</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03997347028652935</v>
+        <v>0.03275071688673536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.07058059398914737</v>
+        <v>0.1119423278323823</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -646,84 +646,80 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.03921358803030132</v>
+        <v>0.02531379024133487</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0184165591230803</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1186025120048931</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03895425253060674</v>
+        <v>0.01761983968589271</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05819767668848554</v>
+        <v>0.5315956270240703</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02102602135627927</v>
+        <v>0.008717821553762384</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5187211605750924</v>
+        <v>0.8394396911983413</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004541251050860701</v>
+        <v>0.008517737223408189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9239858261627811</v>
+        <v>0.5901804705434541</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002934235712215818</v>
+        <v>0.007714851580860315</v>
       </c>
       <c r="C18" t="n">
-        <v>0.918428714543656</v>
+        <v>0.7691086688064859</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0148483599640369</v>
+        <v>0.001899224404659956</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3871463377836246</v>
+        <v>0.9422608819367231</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
@@ -734,38 +730,38 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.02683460263552814</v>
+        <v>-0.01377039510648923</v>
       </c>
       <c r="C20" t="n">
-        <v>0.768641156847675</v>
+        <v>0.8806069678690502</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02869017063985911</v>
+        <v>-0.01432034940043482</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4446226506592543</v>
+        <v>0.7632618677475215</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.04457082065624938</v>
+        <v>-0.0338288933483587</v>
       </c>
       <c r="C22" t="n">
-        <v>0.06521917400628864</v>
+        <v>0.3700165189860266</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
@@ -776,10 +772,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.05564305625120809</v>
+        <v>-0.0529552336894244</v>
       </c>
       <c r="C23" t="n">
-        <v>0.002416964049729713</v>
+        <v>0.004072852524008923</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -790,14 +786,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.07741297522638228</v>
+        <v>-0.05968573515890734</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02749968375525213</v>
+        <v>0.01256859658212082</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -812,10 +808,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.07982850410890746</v>
+        <v>-0.06978899001620872</v>
       </c>
       <c r="C25" t="n">
-        <v>9.608977227948692e-06</v>
+        <v>9.347683467519152e-05</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -826,66 +822,48 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.09900042456464624</v>
+        <v>-0.1056932370610642</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007338184192387982</v>
+        <v>0.001661741772602711</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1012027469286463</v>
+        <v>-28960383409.96368</v>
       </c>
       <c r="C27" t="n">
-        <v>0.002468035748997497</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8835514728575214</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-44429655973.08057</v>
+        <v>-28960383409.97583</v>
       </c>
       <c r="C28" t="n">
-        <v>0.8499833638788489</v>
+        <v>0.8835514728574729</v>
       </c>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-44429655973.09192</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.8499833638788109</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_ndcg@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,84 +458,104 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>13812744377.57056</v>
+        <v>0.29002911538189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8835514728573952</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>2.430936825206045e-05</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9111743006.426666</v>
+        <v>0.2495664039429106</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8835514728567675</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>1.615415378890203e-35</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9111743006.32399</v>
+        <v>0.1570317903894084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8835514728580681</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>2.517036141156926e-06</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6035896026.137238</v>
+        <v>0.1344477294807849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8835514728556861</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.01470047796338042</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6035896026.037201</v>
+        <v>0.1252697710925882</v>
       </c>
       <c r="C6" t="n">
-        <v>0.883551472857603</v>
-      </c>
-      <c r="D6" t="inlineStr"/>
+        <v>0.01107584092214119</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6035896025.966217</v>
+        <v>0.09906700817264888</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8835514728589628</v>
+        <v>0.1709828219384471</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
@@ -546,152 +566,136 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.1543171252072861</v>
+        <v>0.09662283120705381</v>
       </c>
       <c r="C8" t="n">
-        <v>2.342939948346687e-14</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3103481028887405</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1197811711767104</v>
+        <v>0.08711094399457542</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0006505056054869644</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1198337295990814</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.08725953848895941</v>
+        <v>0.07070915651661511</v>
       </c>
       <c r="C10" t="n">
-        <v>6.463577474490125e-10</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6843753860380795</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.07379764656268806</v>
+        <v>0.009570952714125815</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01045840046735528</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7503796095037221</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03500277779700333</v>
+        <v>0.004438537445236835</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1145972130527194</v>
+        <v>0.8816977232443006</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03275071688673536</v>
+        <v>-0.01475794595758453</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1119423278323823</v>
+        <v>0.8697427285894335</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.02531379024133487</v>
+        <v>-0.01957142219787525</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1186025120048931</v>
+        <v>0.8184613593601268</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01761983968589271</v>
+        <v>-0.0203960414948207</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5315956270240703</v>
+        <v>0.6579875788439471</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008717821553762384</v>
+        <v>-0.02262004336330408</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8394396911983413</v>
+        <v>0.5282734765145353</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.008517737223408189</v>
+        <v>-0.03760815248677125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5901804705434541</v>
+        <v>0.5688777998267491</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
@@ -702,168 +706,122 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.007714851580860315</v>
+        <v>-0.04520818770469161</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7691086688064859</v>
+        <v>0.3956092864592213</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.001899224404659956</v>
+        <v>-0.04896064862645689</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9422608819367231</v>
+        <v>0.1854415435145589</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01377039510648923</v>
+        <v>-0.04991769366923567</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8806069678690502</v>
+        <v>0.5505593935749548</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01432034940043482</v>
+        <v>-0.08950207985508161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7632618677475215</v>
+        <v>0.1591263859252008</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.0338288933483587</v>
+        <v>-0.09382289156923032</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3700165189860266</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.007490110296240655</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0529552336894244</v>
+        <v>-0.09531699553343376</v>
       </c>
       <c r="C23" t="n">
-        <v>0.004072852524008923</v>
+        <v>0.01480794902971469</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.05968573515890734</v>
+        <v>-0.1392221934334267</v>
       </c>
       <c r="C24" t="n">
-        <v>0.01256859658212082</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2065750461681208</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06978899001620872</v>
+        <v>-0.1891398871026637</v>
       </c>
       <c r="C25" t="n">
-        <v>9.347683467519152e-05</v>
+        <v>0.009072312937992075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1056932370610642</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001661741772602711</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
           <t>**</t>
         </is>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-28960383409.96368</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8835514728575214</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-28960383409.97583</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8835514728574729</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
